--- a/excel2mysql/excels/con_goods.xlsx
+++ b/excel2mysql/excels/con_goods.xlsx
@@ -19,24 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>goods_id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>product_id</t>
   </si>
   <si>
+    <t>varchar(80)||</t>
+  </si>
+  <si>
     <t>rmb</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>diamond</t>
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>float||</t>
   </si>
   <si>
     <t>com_hfwl_zpmqjx_6</t>
@@ -375,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,16 +398,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -403,41 +415,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -451,10 +463,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -463,6 +475,23 @@
         <v>40</v>
       </c>
       <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
         <v>0.5</v>
       </c>
     </row>
